--- a/ig/main/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/main/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T12:21:52+00:00</t>
+    <t>2023-10-17T15:35:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,6 +136,10 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}</t>
+  </si>
+  <si>
     <t>Appointment.id</t>
   </si>
   <si>
@@ -386,7 +390,7 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -884,7 +888,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1370,10 +1374,6 @@
   </si>
   <si>
     <t>Participation period of the actor.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).</t>
   </si>
   <si>
     <t>Appointment.requestedPeriod</t>
@@ -1823,15 +1823,15 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1842,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>34</v>
@@ -1851,19 +1851,19 @@
         <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1913,13 +1913,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>34</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1944,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>34</v>
@@ -1953,16 +1953,16 @@
         <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2013,27 +2013,27 @@
         <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2044,28 +2044,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2115,27 +2115,27 @@
         <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2146,7 +2146,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>34</v>
@@ -2158,16 +2158,16 @@
         <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2193,13 +2193,13 @@
         <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>34</v>
@@ -2217,38 +2217,38 @@
         <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>34</v>
@@ -2260,16 +2260,16 @@
         <v>34</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2319,31 +2319,31 @@
         <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2362,16 +2362,16 @@
         <v>34</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2421,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -2464,13 +2464,13 @@
         <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2509,19 +2509,19 @@
         <v>34</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2530,31 +2530,31 @@
         <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>34</v>
@@ -2566,13 +2566,13 @@
         <v>34</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2623,7 +2623,7 @@
         <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2632,18 +2632,18 @@
         <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2654,7 +2654,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>34</v>
@@ -2666,13 +2666,13 @@
         <v>34</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2723,13 +2723,13 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>34</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2766,13 +2766,13 @@
         <v>34</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2811,19 +2811,19 @@
         <v>34</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2832,18 +2832,18 @@
         <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2851,10 +2851,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>34</v>
@@ -2866,16 +2866,16 @@
         <v>34</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>34</v>
@@ -2925,13 +2925,13 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>34</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2953,10 +2953,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>34</v>
@@ -2968,13 +2968,13 @@
         <v>34</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3013,40 +3013,40 @@
         <v>34</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>34</v>
@@ -3056,7 +3056,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>34</v>
@@ -3068,13 +3068,13 @@
         <v>34</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3125,27 +3125,27 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3156,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>34</v>
@@ -3168,13 +3168,13 @@
         <v>34</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3225,13 +3225,13 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>34</v>
@@ -3242,14 +3242,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3268,16 +3268,16 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3315,19 +3315,19 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3336,18 +3336,18 @@
         <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3358,7 +3358,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>34</v>
@@ -3367,19 +3367,19 @@
         <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3429,27 +3429,27 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3460,7 +3460,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>34</v>
@@ -3469,19 +3469,19 @@
         <v>34</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3507,13 +3507,13 @@
         <v>34</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>34</v>
@@ -3531,27 +3531,27 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3559,10 +3559,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>34</v>
@@ -3571,19 +3571,19 @@
         <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3633,27 +3633,27 @@
         <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3664,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>34</v>
@@ -3676,13 +3676,13 @@
         <v>34</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3733,13 +3733,13 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>34</v>
@@ -3750,14 +3750,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3776,16 +3776,16 @@
         <v>34</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3823,19 +3823,19 @@
         <v>34</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -3844,18 +3844,18 @@
         <v>36</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3866,31 +3866,31 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
@@ -3915,13 +3915,13 @@
         <v>34</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>34</v>
@@ -3939,27 +3939,27 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3967,10 +3967,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>34</v>
@@ -3979,22 +3979,22 @@
         <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>34</v>
@@ -4019,13 +4019,13 @@
         <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>34</v>
@@ -4043,27 +4043,27 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4074,7 +4074,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>34</v>
@@ -4086,13 +4086,13 @@
         <v>34</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4143,13 +4143,13 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>34</v>
@@ -4160,14 +4160,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4186,16 +4186,16 @@
         <v>34</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4233,19 +4233,19 @@
         <v>34</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4254,18 +4254,18 @@
         <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4273,10 +4273,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>34</v>
@@ -4285,22 +4285,22 @@
         <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>34</v>
@@ -4349,7 +4349,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4358,18 +4358,18 @@
         <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4380,7 +4380,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>34</v>
@@ -4392,13 +4392,13 @@
         <v>34</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4449,13 +4449,13 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>34</v>
@@ -4466,14 +4466,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4492,16 +4492,16 @@
         <v>34</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4539,19 +4539,19 @@
         <v>34</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4560,18 +4560,18 @@
         <v>36</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4579,10 +4579,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4591,29 +4591,29 @@
         <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>34</v>
@@ -4655,27 +4655,27 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4686,7 +4686,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -4695,19 +4695,19 @@
         <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4757,27 +4757,27 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4785,10 +4785,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>34</v>
@@ -4797,22 +4797,22 @@
         <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>34</v>
@@ -4861,27 +4861,27 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4892,7 +4892,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>34</v>
@@ -4901,22 +4901,22 @@
         <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -4965,27 +4965,27 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4996,7 +4996,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>34</v>
@@ -5005,22 +5005,22 @@
         <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>34</v>
@@ -5069,27 +5069,27 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5100,7 +5100,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>34</v>
@@ -5109,22 +5109,22 @@
         <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>34</v>
@@ -5173,27 +5173,27 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5201,10 +5201,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>34</v>
@@ -5213,22 +5213,22 @@
         <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>34</v>
@@ -5241,7 +5241,7 @@
         <v>34</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>34</v>
@@ -5277,27 +5277,27 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5305,10 +5305,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>34</v>
@@ -5317,19 +5317,19 @@
         <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5343,7 +5343,7 @@
         <v>34</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>34</v>
@@ -5379,27 +5379,27 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5410,7 +5410,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>34</v>
@@ -5419,19 +5419,19 @@
         <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5481,27 +5481,27 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5512,7 +5512,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>34</v>
@@ -5521,19 +5521,19 @@
         <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5583,27 +5583,27 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5614,7 +5614,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>34</v>
@@ -5623,19 +5623,19 @@
         <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5685,31 +5685,31 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5722,25 +5722,25 @@
         <v>34</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>34</v>
@@ -5777,19 +5777,19 @@
         <v>34</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -5798,18 +5798,18 @@
         <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5817,10 +5817,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>34</v>
@@ -5829,16 +5829,16 @@
         <v>34</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5889,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -5898,18 +5898,18 @@
         <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5920,7 +5920,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>34</v>
@@ -5932,13 +5932,13 @@
         <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5989,13 +5989,13 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>34</v>
@@ -6006,14 +6006,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6032,16 +6032,16 @@
         <v>34</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6079,19 +6079,19 @@
         <v>34</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6100,18 +6100,18 @@
         <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6122,31 +6122,31 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>34</v>
@@ -6171,13 +6171,13 @@
         <v>34</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>34</v>
@@ -6195,27 +6195,27 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6226,7 +6226,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6235,22 +6235,22 @@
         <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>34</v>
@@ -6275,13 +6275,13 @@
         <v>34</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>34</v>
@@ -6299,27 +6299,27 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6327,10 +6327,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -6339,22 +6339,22 @@
         <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>34</v>
@@ -6367,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>34</v>
@@ -6403,27 +6403,27 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6431,10 +6431,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>34</v>
@@ -6443,19 +6443,19 @@
         <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6469,7 +6469,7 @@
         <v>34</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>34</v>
@@ -6505,27 +6505,27 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6536,7 +6536,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>34</v>
@@ -6545,19 +6545,19 @@
         <v>34</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6607,27 +6607,27 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6638,7 +6638,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>34</v>
@@ -6647,19 +6647,19 @@
         <v>34</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6709,27 +6709,27 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6737,31 +6737,31 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6787,13 +6787,13 @@
         <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>34</v>
@@ -6811,27 +6811,27 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6842,7 +6842,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>34</v>
@@ -6851,19 +6851,19 @@
         <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -6889,11 +6889,11 @@
         <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>34</v>
@@ -6911,27 +6911,27 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6951,19 +6951,19 @@
         <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6989,11 +6989,11 @@
         <v>34</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>34</v>
@@ -7011,7 +7011,7 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7020,18 +7020,18 @@
         <v>36</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7051,19 +7051,19 @@
         <v>34</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7089,11 +7089,11 @@
         <v>34</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>34</v>
@@ -7111,7 +7111,7 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7120,18 +7120,18 @@
         <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7151,19 +7151,19 @@
         <v>34</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7189,11 +7189,11 @@
         <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>34</v>
@@ -7211,7 +7211,7 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -7220,18 +7220,18 @@
         <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7242,7 +7242,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>34</v>
@@ -7251,19 +7251,19 @@
         <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7289,11 +7289,11 @@
         <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>34</v>
@@ -7311,27 +7311,27 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7351,19 +7351,19 @@
         <v>34</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7389,13 +7389,13 @@
         <v>34</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>34</v>
@@ -7413,7 +7413,7 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -7422,18 +7422,18 @@
         <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7456,16 +7456,16 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7515,7 +7515,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -7524,18 +7524,18 @@
         <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7546,7 +7546,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>34</v>
@@ -7558,16 +7558,16 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7617,27 +7617,27 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7648,7 +7648,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>34</v>
@@ -7660,16 +7660,16 @@
         <v>34</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7719,27 +7719,27 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7762,16 +7762,16 @@
         <v>34</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7821,7 +7821,7 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -7830,18 +7830,18 @@
         <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7849,10 +7849,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>34</v>
@@ -7861,19 +7861,19 @@
         <v>34</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -7923,27 +7923,27 @@
         <v>34</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7951,10 +7951,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>34</v>
@@ -7963,19 +7963,19 @@
         <v>34</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8025,27 +8025,27 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8056,7 +8056,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>34</v>
@@ -8068,16 +8068,16 @@
         <v>34</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8127,27 +8127,27 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8170,16 +8170,16 @@
         <v>34</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8229,7 +8229,7 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -8238,18 +8238,18 @@
         <v>36</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8260,7 +8260,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>34</v>
@@ -8272,16 +8272,16 @@
         <v>34</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8331,27 +8331,27 @@
         <v>34</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8362,7 +8362,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>34</v>
@@ -8374,16 +8374,16 @@
         <v>34</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8433,27 +8433,27 @@
         <v>34</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8464,7 +8464,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>34</v>
@@ -8476,16 +8476,16 @@
         <v>34</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8535,31 +8535,31 @@
         <v>34</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8578,16 +8578,16 @@
         <v>34</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -8637,7 +8637,7 @@
         <v>34</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -8646,18 +8646,18 @@
         <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>36</v>
@@ -8680,13 +8680,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8737,27 +8737,27 @@
         <v>34</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8768,7 +8768,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>34</v>
@@ -8780,13 +8780,13 @@
         <v>34</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8837,13 +8837,13 @@
         <v>34</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>34</v>
@@ -8854,14 +8854,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -8880,16 +8880,16 @@
         <v>34</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -8927,19 +8927,19 @@
         <v>34</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -8948,22 +8948,22 @@
         <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -8976,25 +8976,25 @@
         <v>34</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>34</v>
@@ -9043,7 +9043,7 @@
         <v>34</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -9052,18 +9052,18 @@
         <v>36</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9083,19 +9083,19 @@
         <v>34</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9121,13 +9121,13 @@
         <v>34</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>34</v>
@@ -9145,7 +9145,7 @@
         <v>34</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -9154,18 +9154,18 @@
         <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9176,7 +9176,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>34</v>
@@ -9185,19 +9185,19 @@
         <v>34</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9247,27 +9247,27 @@
         <v>34</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9278,7 +9278,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>34</v>
@@ -9290,13 +9290,13 @@
         <v>34</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9347,13 +9347,13 @@
         <v>34</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>34</v>
@@ -9364,14 +9364,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9390,16 +9390,16 @@
         <v>34</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -9437,19 +9437,19 @@
         <v>34</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
@@ -9458,18 +9458,18 @@
         <v>36</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9480,7 +9480,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>34</v>
@@ -9489,19 +9489,19 @@
         <v>34</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9551,27 +9551,27 @@
         <v>34</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9582,7 +9582,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>34</v>
@@ -9591,19 +9591,19 @@
         <v>34</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -9629,13 +9629,13 @@
         <v>34</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>34</v>
@@ -9653,27 +9653,27 @@
         <v>34</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9684,7 +9684,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>34</v>
@@ -9693,19 +9693,19 @@
         <v>34</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9755,27 +9755,27 @@
         <v>34</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9786,7 +9786,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>34</v>
@@ -9798,13 +9798,13 @@
         <v>34</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9855,13 +9855,13 @@
         <v>34</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>34</v>
@@ -9872,14 +9872,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -9898,16 +9898,16 @@
         <v>34</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -9945,19 +9945,19 @@
         <v>34</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -9966,18 +9966,18 @@
         <v>36</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9988,31 +9988,31 @@
         <v>35</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>34</v>
@@ -10037,13 +10037,13 @@
         <v>34</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>34</v>
@@ -10061,27 +10061,27 @@
         <v>34</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10089,10 +10089,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>34</v>
@@ -10101,22 +10101,22 @@
         <v>34</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>34</v>
@@ -10141,13 +10141,13 @@
         <v>34</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>34</v>
@@ -10165,27 +10165,27 @@
         <v>34</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10196,7 +10196,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>34</v>
@@ -10208,13 +10208,13 @@
         <v>34</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10265,13 +10265,13 @@
         <v>34</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>34</v>
@@ -10282,14 +10282,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -10308,16 +10308,16 @@
         <v>34</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10355,19 +10355,19 @@
         <v>34</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>35</v>
@@ -10376,18 +10376,18 @@
         <v>36</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10395,10 +10395,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>34</v>
@@ -10407,29 +10407,29 @@
         <v>34</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>34</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>34</v>
@@ -10471,7 +10471,7 @@
         <v>34</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>35</v>
@@ -10480,18 +10480,18 @@
         <v>36</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10502,7 +10502,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>34</v>
@@ -10511,22 +10511,22 @@
         <v>34</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>34</v>
@@ -10575,27 +10575,27 @@
         <v>34</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10603,10 +10603,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>34</v>
@@ -10615,35 +10615,35 @@
         <v>34</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>34</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>34</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>34</v>
@@ -10679,27 +10679,27 @@
         <v>34</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10707,10 +10707,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>34</v>
@@ -10719,19 +10719,19 @@
         <v>34</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -10745,7 +10745,7 @@
         <v>34</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>34</v>
@@ -10781,27 +10781,27 @@
         <v>34</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10812,7 +10812,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>34</v>
@@ -10821,19 +10821,19 @@
         <v>34</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -10883,27 +10883,27 @@
         <v>34</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10914,7 +10914,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>34</v>
@@ -10923,19 +10923,19 @@
         <v>34</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -10985,27 +10985,27 @@
         <v>34</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11016,7 +11016,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>34</v>
@@ -11025,19 +11025,19 @@
         <v>34</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11087,27 +11087,27 @@
         <v>34</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11118,7 +11118,7 @@
         <v>35</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>34</v>
@@ -11127,19 +11127,19 @@
         <v>34</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11165,13 +11165,13 @@
         <v>34</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>34</v>
@@ -11189,27 +11189,27 @@
         <v>34</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11217,10 +11217,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>34</v>
@@ -11229,19 +11229,19 @@
         <v>34</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>34</v>
@@ -11267,13 +11267,13 @@
         <v>34</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>34</v>
@@ -11291,27 +11291,27 @@
         <v>34</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11322,7 +11322,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>34</v>
@@ -11334,16 +11334,16 @@
         <v>34</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>432</v>
+        <v>259</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -11393,19 +11393,19 @@
         <v>34</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96">
@@ -11436,7 +11436,7 @@
         <v>34</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>434</v>
@@ -11504,10 +11504,10 @@
         <v>36</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
